--- a/Graphs/TableStocks.xlsx
+++ b/Graphs/TableStocks.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10414"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AlexT/Dropbox/SEN19R/FIRST/algorithmic-trading/Graphs/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{839482AC-0E16-474C-AB06-5C2736EC519F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17680" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="17680" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="90">
   <si>
     <t>Stock Ticker</t>
   </si>
@@ -277,12 +283,24 @@
   </si>
   <si>
     <t>Vodafone Group Plc</t>
+  </si>
+  <si>
+    <t>BIG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Big Lots!, Inc. </t>
+  </si>
+  <si>
+    <t>COLM</t>
+  </si>
+  <si>
+    <t>Columbia Sportswear Company</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -367,19 +385,27 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C41" totalsRowShown="0">
-  <autoFilter ref="A1:C41"/>
-  <sortState ref="A2:C41">
-    <sortCondition ref="A1:A41"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:C43" totalsRowShown="0">
+  <autoFilter ref="A1:C43" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C43">
+    <sortCondition ref="A1:A43"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" name="Stock Ticker"/>
-    <tableColumn id="2" name="Stock Name"/>
-    <tableColumn id="3" name="Stock Market"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Stock Ticker"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Stock Name"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Stock Market"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -706,21 +732,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.1640625" customWidth="1"/>
     <col min="2" max="2" width="39.5" customWidth="1"/>
     <col min="3" max="3" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -731,7 +757,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -742,7 +768,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -753,7 +779,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -764,7 +790,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -775,7 +801,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -786,388 +812,410 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>62</v>
       </c>
-      <c r="C7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
+      <c r="C8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>21</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B10" t="s">
         <v>63</v>
       </c>
-      <c r="C8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
+      <c r="C10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B11" t="s">
         <v>64</v>
       </c>
-      <c r="C9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
+      <c r="C11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>5</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" t="s">
         <v>74</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C12" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B13" t="s">
         <v>79</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C13" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>6</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B14" t="s">
         <v>76</v>
-      </c>
-      <c r="C12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" t="s">
-        <v>81</v>
       </c>
       <c r="C14" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C15" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C16" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>25</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B19" t="s">
         <v>67</v>
       </c>
-      <c r="C17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
+      <c r="C19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>26</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B20" t="s">
         <v>68</v>
       </c>
-      <c r="C18" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
+      <c r="C20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>7</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B21" t="s">
         <v>60</v>
       </c>
-      <c r="C19" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
+      <c r="C21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>27</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B22" t="s">
         <v>69</v>
       </c>
-      <c r="C20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
+      <c r="C22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>28</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B23" t="s">
         <v>70</v>
       </c>
-      <c r="C21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
+      <c r="C23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>29</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B24" t="s">
         <v>72</v>
       </c>
-      <c r="C22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
+      <c r="C24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>30</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B25" t="s">
         <v>71</v>
       </c>
-      <c r="C23" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
+      <c r="C25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>31</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B26" t="s">
         <v>45</v>
       </c>
-      <c r="C24" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
+      <c r="C26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>17</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B27" t="s">
         <v>73</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C27" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>32</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B28" t="s">
         <v>46</v>
       </c>
-      <c r="C26" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
+      <c r="C28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>8</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B29" t="s">
         <v>59</v>
       </c>
-      <c r="C27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
+      <c r="C29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>33</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B30" t="s">
         <v>47</v>
       </c>
-      <c r="C28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
+      <c r="C30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>34</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B31" t="s">
         <v>48</v>
       </c>
-      <c r="C29" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
+      <c r="C31" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>35</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B32" t="s">
         <v>50</v>
       </c>
-      <c r="C30" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
+      <c r="C32" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>13</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B33" t="s">
         <v>82</v>
-      </c>
-      <c r="C31" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>14</v>
-      </c>
-      <c r="B32" t="s">
-        <v>83</v>
-      </c>
-      <c r="C32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>15</v>
-      </c>
-      <c r="B33" t="s">
-        <v>84</v>
       </c>
       <c r="C33" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" t="s">
+        <v>84</v>
+      </c>
+      <c r="C35" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>36</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B36" t="s">
         <v>51</v>
       </c>
-      <c r="C34" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
+      <c r="C36" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>37</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B37" t="s">
         <v>52</v>
       </c>
-      <c r="C35" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
+      <c r="C37" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>38</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B38" t="s">
         <v>53</v>
       </c>
-      <c r="C36" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="s">
+      <c r="C38" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>39</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B39" t="s">
         <v>54</v>
       </c>
-      <c r="C37" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" t="s">
+      <c r="C39" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>16</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B40" t="s">
         <v>85</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C40" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
-      <c r="A39" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>40</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B41" t="s">
         <v>55</v>
       </c>
-      <c r="C39" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" t="s">
+      <c r="C41" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>41</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B42" t="s">
         <v>56</v>
       </c>
-      <c r="C40" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" t="s">
+      <c r="C42" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>42</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B43" t="s">
         <v>57</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C43" t="s">
         <v>49</v>
       </c>
     </row>
